--- a/templates/QARSF/RSTK-9522-Labor WO.xlsx
+++ b/templates/QARSF/RSTK-9522-Labor WO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9961CD01-F917-4095-94F7-C74D70F8D0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1444C9D-8ED9-4EB4-9735-9E8EF85D887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,8 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -269,11 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -556,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,9 +657,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -674,7 +669,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,10 +922,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,10 +1000,10 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>44537</v>
       </c>
       <c r="E2">
@@ -1034,7 +1029,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
@@ -1060,13 +1055,13 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>58</v>
       </c>
       <c r="I4" t="b">
@@ -1086,13 +1081,13 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="b">
@@ -1112,7 +1107,7 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6">
@@ -1130,48 +1125,6 @@
       <c r="O6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,7 +1138,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
